--- a/doc/Suivi_Challenges.xlsx
+++ b/doc/Suivi_Challenges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\BattleDev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E2415-C9CC-44FE-9592-F9BD2FCAA95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1C2CD-EAB5-46EF-A223-121F40C341DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A98A7E2-C267-4EAC-BF1E-47368CA99072}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Modif</t>
   </si>
@@ -59,6 +59,70 @@
   </si>
   <si>
     <t>Restauration de la version du 27/06 0h50</t>
+  </si>
+  <si>
+    <t>Ajout scoring intuitif</t>
+  </si>
+  <si>
+    <t>Corr bug CONTINUOUS_INTEGRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout play cards </t>
+  </si>
+  <si>
+    <t>Fin du dev de tous les play cards</t>
+  </si>
+  <si>
+    <t>Généralisation de la combinatoire
+ + auto sur bonus</t>
+  </si>
+  <si>
+    <t>Modif score pour bonus = 4</t>
+  </si>
+  <si>
+    <t>Test score dette de -20 à -10</t>
+  </si>
+  <si>
+    <t>Test score dette de -30</t>
+  </si>
+  <si>
+    <t>retour à -20</t>
+  </si>
+  <si>
+    <t>Retour du code avant</t>
+  </si>
+  <si>
+    <t>Modif des play cards qui vont dans la défausse</t>
+  </si>
+  <si>
+    <t>Bonus pour cartes 0 et 1 (30 et 20)</t>
+  </si>
+  <si>
+    <t>Bonus pour cartes 0 et 1 (15 et 10)</t>
+  </si>
+  <si>
+    <t>modif scoring et play card TRA et COD</t>
+  </si>
+  <si>
+    <t>Débug</t>
+  </si>
+  <si>
+    <t>35 ?</t>
+  </si>
+  <si>
+    <t>Test pas de release avant 4 bonus automatisés</t>
+  </si>
+  <si>
+    <t>sauf si dette == 0</t>
+  </si>
+  <si>
+    <t>Bibliotheque d'ouverture</t>
+  </si>
+  <si>
+    <t>Bonus automated à 1,000</t>
+  </si>
+  <si>
+    <t>Restaur 21:09</t>
   </si>
 </sst>
 </file>
@@ -82,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -117,6 +187,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9987FF8-61B1-4588-8A5E-FF8AC332F372}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +517,7 @@
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -457,14 +531,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="D2">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44749</v>
       </c>
@@ -478,7 +552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44750</v>
       </c>
@@ -489,7 +563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44752</v>
       </c>
@@ -503,7 +577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44752</v>
       </c>
@@ -514,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44753</v>
       </c>
@@ -523,6 +597,253 @@
       </c>
       <c r="D7">
         <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44756</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Suivi_Challenges.xlsx
+++ b/doc/Suivi_Challenges.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\BattleDev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1C2CD-EAB5-46EF-A223-121F40C341DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD924D82-AE63-4E55-819F-4495FDEA1A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A98A7E2-C267-4EAC-BF1E-47368CA99072}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3A98A7E2-C267-4EAC-BF1E-47368CA99072}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Circle" sheetId="1" r:id="rId1"/>
+    <sheet name="Chess" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Modif</t>
   </si>
@@ -123,6 +124,15 @@
   </si>
   <si>
     <t>Restaur 21:09</t>
+  </si>
+  <si>
+    <t>Restaur 13/07 à 22:19</t>
+  </si>
+  <si>
+    <t>Amélior eval et petite bib d'ouv.</t>
+  </si>
+  <si>
+    <t>modif regle des 3 positions et gestion du pat</t>
   </si>
 </sst>
 </file>
@@ -505,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9987FF8-61B1-4588-8A5E-FF8AC332F372}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,9 +855,90 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44757</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE50BFE-D55C-4630-BFA0-6479365C4096}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44757</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44758</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44759</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0.88750000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>